--- a/full_detailed_aggregated_report_gm_ten_west.xlsx
+++ b/full_detailed_aggregated_report_gm_ten_west.xlsx
@@ -523,22 +523,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$108,035.92</t>
+          <t>$109,799.32</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$-42,436.39</t>
+          <t>$-44,673.16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$-16,102.57</t>
+          <t>$-16,366.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$-20,130.36</t>
+          <t>$-20,540.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$-2,232.00</t>
+          <t>$-2,301.96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$-2,232.00</t>
+          <t>$-2,301.96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -563,37 +563,37 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$-2,932.78</t>
+          <t>$-3,034.65</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-10.59</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>$-1,900.67</t>
+          <t>$-1,994.42</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>$-950.33</t>
+          <t>$-997.20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2,626</t>
+          <t>2,666</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>$23,251.49</t>
+          <t>$21,875.03</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>21.52%</t>
+          <t>19.92%</t>
         </is>
       </c>
     </row>
@@ -605,22 +605,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$927.73</t>
+          <t>$2,060.64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$-309.75</t>
+          <t>$-441.25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$-139.38</t>
+          <t>$-309.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$-296.88</t>
+          <t>$-740.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-18.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -640,42 +640,42 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-0.55</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$-103.66</t>
+          <t>$-172.58</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-0.18</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$-32.10</t>
+          <t>$-70.71</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>$-8.02</t>
+          <t>$-17.68</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>190</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>$70.04</t>
+          <t>$378.65</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>7.55%</t>
+          <t>18.38%</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$24.99</t>
+          <t>$47.98</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$-13.90</t>
+          <t>$-28.01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$-3.75</t>
+          <t>$-7.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$-3.68</t>
+          <t>$-8.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-0.20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -747,17 +747,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>$3.66</t>
+          <t>$3.90</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>14.65%</t>
+          <t>8.13%</t>
         </is>
       </c>
     </row>
@@ -769,22 +769,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$20,624.40</t>
+          <t>$29,458.34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$-9,317.60</t>
+          <t>$-15,049.47</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$-3,141.69</t>
+          <t>$-4,644.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$-727.11</t>
+          <t>$-821.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>$-325.15</t>
+          <t>$-336.89</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -804,42 +804,42 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>$-2.26</t>
+          <t>$-5.61</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$-186.36</t>
+          <t>$-801.23</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-2.85</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>$-516.46</t>
+          <t>$-686.19</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>$-343.72</t>
+          <t>$-447.55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>132</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>$6,905.66</t>
+          <t>$7,686.01</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>33.48%</t>
+          <t>26.09%</t>
         </is>
       </c>
     </row>
@@ -891,22 +891,22 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$-1,249.58</t>
+          <t>$-1,346.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-26.31</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>$-3,941.92</t>
+          <t>$-3,773.79</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>$-3,941.92</t>
+          <t>$-3,773.79</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>$58,066.39</t>
+          <t>$58,111.79</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>21.37%</t>
+          <t>21.38%</t>
         </is>
       </c>
     </row>

--- a/full_detailed_aggregated_report_gm_ten_west.xlsx
+++ b/full_detailed_aggregated_report_gm_ten_west.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Amazon Top-line Sales (ATS)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Product Cost</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Referral Fee</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FBA Fulfillment Fee</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>other transaction fees</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Shipping/Kitting Fees</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Adjusted Shipping/Kitting Fees</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Labeling/Polybagging Fees</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Storage Fees</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Allocated fees (Premium Services Fee + Subscription)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Cost of Returns</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Adjusted Cost of Returns</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -523,77 +523,77 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2,666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>$109,799.32</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$-44,673.16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>$-16,366.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>$-20,540.63</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>$-2,301.96</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>$-2,301.96</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$-3,034.65</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>$-3,050.59</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>$-10.59</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>$-1,994.42</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>$-997.20</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2,666</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>$21,875.03</t>
+          <t>$21,859.09</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19.92%</t>
+          <t>19.91%</t>
         </is>
       </c>
     </row>
@@ -605,77 +605,77 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>$2,060.64</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$-441.25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>$-309.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>$-740.32</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>$-18.91</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>$-0.55</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$-172.58</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>$-175.52</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>$-0.18</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>$-70.71</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>$-17.68</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>$378.65</t>
+          <t>$375.71</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>18.38%</t>
+          <t>18.23%</t>
         </is>
       </c>
     </row>
@@ -687,29 +687,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>$47.98</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$-28.01</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>$-7.20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>$-8.67</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>$0.00</t>
@@ -727,14 +727,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>$-0.20</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>$0.00</t>
@@ -747,7 +747,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -769,77 +769,77 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>$29,458.34</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$-15,049.47</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>$-4,644.32</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>$-821.30</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>$-336.89</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>$-5.61</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>$-801.23</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>$-805.74</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>$-2.85</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>$-686.19</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>$-447.55</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>$7,686.01</t>
+          <t>$7,681.50</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>26.09%</t>
+          <t>26.08%</t>
         </is>
       </c>
     </row>
@@ -851,77 +851,241 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>7,723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>$271,751.40</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$-98,771.67</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>$-39,128.88</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>$-55,460.44</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>$-13,830.67</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>$-13,830.67</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>$-1,301.85</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>$-1,346.00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>$-26.31</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>$-3,773.79</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>$-3,773.79</t>
+          <t>$-3,925.61</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1,053</t>
+          <t>$-3,925.61</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>$58,111.79</t>
+          <t>$57,959.97</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>21.38%</t>
+          <t>21.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rich</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>$-2.74</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>$-2.74</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10,713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$413,117.68</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$-158,963.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$-60,455.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$-77,571.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>$-16,488.43</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$-16,132.63</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$-1,308.01</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>$-5,380.79</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>$-39.93</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>$-6,676.93</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$-5,388.04</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>$87,877.43</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>21.27%</t>
         </is>
       </c>
     </row>
